--- a/manuscript/tables/S1_clumps_finemap.xlsx
+++ b/manuscript/tables/S1_clumps_finemap.xlsx
@@ -8,19 +8,20 @@
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Table S1A clumps fixed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Table S1B SuSiEx summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Table S1C SuSiEx credible sets" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table S1B clumps MR-MEGA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Table S1C SuSiEx summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Table S1D SuSiEx credible sets" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t xml:space="preserve">Table S1. Clumping and fine mapping results for the meta-analysis of the antidepressant GWAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Results are divided into (A) fixed clumping results across all ancestries and antidepressant phenotypes, (B) significant SuSiEx summary statistics and (C) significant SuSiEx credible sets.</t>
+    <t xml:space="preserve">Results are divided into (A) fixed clumping results across all ancestries and antidepressant phenotypes, (B) MR-MEGA clumping results, (C) significant SuSiEx summary statistics and (D) significant SuSiEx credible sets.</t>
   </si>
   <si>
     <t xml:space="preserve">sheet_name</t>
@@ -173,13 +174,175 @@
     <t xml:space="preserve">end position of the locus</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S1B SuSiEx summary</t>
+    <t xml:space="preserve">Table S1B clumps MR-MEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarkerName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromosome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chromosome (numeric)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect allele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-effect allele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EAF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency of effect allele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nsample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ncohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of cohorts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direction of effects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of first PC of meta regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard error of beta_0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of second PC of meta regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard error of beta_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of third PC of meta regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard error of beta_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effect of fourth PC of meta regression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standard error of beta_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chisq_association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assocation test statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndf_association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association degrees of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">association p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chisq_ancestry_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestry heterogeneity test statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndf_ancestry_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestry heterogeneity degress of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-value_ancestry_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ancestry heterogeneity p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chisq_residual_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residual heterogeneity test statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ndf_residual_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residual heterogeneity degress of freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-value_residual_het</t>
+  </si>
+  <si>
+    <t xml:space="preserve">residual heterogeneity p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log of Bayes Factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason if marker was not analyzed</t>
   </si>
   <si>
     <t xml:space="preserve">CHR</t>
   </si>
   <si>
-    <t xml:space="preserve">Chromosome</t>
+    <t xml:space="preserve">chromosome (character)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table S1C SuSiEx summary</t>
   </si>
   <si>
     <t xml:space="preserve">BP_START</t>
@@ -356,7 +519,7 @@
     <t xml:space="preserve">Post hoc probability credible set manifest causal in population: EUR</t>
   </si>
   <si>
-    <t xml:space="preserve">Table S1C SuSiEx credible sets</t>
+    <t xml:space="preserve">Table S1D SuSiEx credible sets</t>
   </si>
   <si>
     <t xml:space="preserve">SNP</t>
@@ -783,6 +946,228 @@
   </si>
   <si>
     <t xml:space="preserve">rs72826042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N06A-DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1008431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+----+---++-+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2339515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++++-++++++-+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs59977751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--+-+---------+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++-+--+++-+++-+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs35710087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++?-++?-?++?-++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1129133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+-+++?++--?+-+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs73078367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">----+-?--+-?---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs12513045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-+--+---++--+-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+---+----+---+-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs56405820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+-++-++++-++++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs7446574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++++++++?+--+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs115196245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?-?+?+?+-???+?-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs12204714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--+-+-----++---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+-+--?++++++--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs35017949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++-?-----------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--?--+?--???--+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-+-+-?--+-+---</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs117661209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?+?++??+-???-??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----+?-?++?-++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1862743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--+-+++---++--+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+++++-+++--+--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs7230446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+++++--++-+++-+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs6566870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">++-+-++++---+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+++++--++++++++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs2091746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--+-++--------+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-?-+-?-???????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N06AA-DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs10784052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+++++++++-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N06AB-DIV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs74766704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+++?+--+?+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs1656375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--+-+----++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-+++--+++-+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs8045989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-++++-+-+++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs6624508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-----+?----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rs113661605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--?+-++????</t>
   </si>
   <si>
     <t xml:space="preserve">rs79159452</t>
@@ -1411,10 +1796,10 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1422,10 +1807,10 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1433,10 +1818,10 @@
         <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30">
@@ -1444,10 +1829,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1455,10 +1840,10 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -1466,10 +1851,10 @@
         <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -1477,10 +1862,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
@@ -1488,10 +1873,10 @@
         <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -1499,10 +1884,10 @@
         <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36">
@@ -1510,10 +1895,10 @@
         <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
@@ -1521,10 +1906,10 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38">
@@ -1532,10 +1917,10 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -1543,10 +1928,10 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
@@ -1554,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
@@ -1565,10 +1950,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -1576,10 +1961,10 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -1587,10 +1972,10 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -1598,10 +1983,10 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1609,10 +1994,10 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46">
@@ -1620,10 +2005,10 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -1631,10 +2016,10 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48">
@@ -1642,10 +2027,10 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49">
@@ -1653,10 +2038,10 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
@@ -1664,10 +2049,10 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51">
@@ -1675,10 +2060,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
@@ -1686,10 +2071,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53">
@@ -1697,10 +2082,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54">
@@ -1708,10 +2093,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55">
@@ -1719,10 +2104,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56">
@@ -1730,117 +2115,117 @@
         <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="C66" t="s">
         <v>120</v>
@@ -1848,178 +2233,541 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C75" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>151</v>
+      </c>
+      <c r="C82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>108</v>
+      </c>
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" t="s">
         <v>113</v>
       </c>
-      <c r="B82" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="B95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>167</v>
+      </c>
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>167</v>
+      </c>
+      <c r="B98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>167</v>
+      </c>
+      <c r="B99" t="s">
+        <v>129</v>
+      </c>
+      <c r="C99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>167</v>
+      </c>
+      <c r="B101" t="s">
+        <v>133</v>
+      </c>
+      <c r="C101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+      <c r="B102" t="s">
         <v>135</v>
+      </c>
+      <c r="C102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>141</v>
+      </c>
+      <c r="C105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>167</v>
+      </c>
+      <c r="B106" t="s">
+        <v>143</v>
+      </c>
+      <c r="C106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>145</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>167</v>
+      </c>
+      <c r="B108" t="s">
+        <v>147</v>
+      </c>
+      <c r="C108" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>167</v>
+      </c>
+      <c r="B109" t="s">
+        <v>149</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>167</v>
+      </c>
+      <c r="B114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2109,25 +2857,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="D2" t="n">
         <v>72030012</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -2180,25 +2928,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D3" t="n">
         <v>29390203</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H3" t="n">
         <v>2</v>
@@ -2251,25 +2999,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D4" t="n">
         <v>25205012</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -2316,25 +3064,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D5" t="n">
         <v>190658954</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -2387,25 +3135,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D6" t="n">
         <v>213933871</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2452,25 +3200,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B7" t="n">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D7" t="n">
         <v>22347202</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -2523,25 +3271,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B8" t="n">
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D8" t="n">
         <v>27156503</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -2594,25 +3342,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B9" t="n">
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D9" t="n">
         <v>192037679</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
@@ -2665,25 +3413,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B10" t="n">
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D10" t="n">
         <v>211754111</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -2736,25 +3484,25 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B11" t="n">
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D11" t="n">
         <v>16810163</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2807,25 +3555,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B12" t="n">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D12" t="n">
         <v>18657436</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G12" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -2878,25 +3626,25 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B13" t="n">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D13" t="n">
         <v>29729827</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G13" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -2943,25 +3691,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B14" t="n">
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D14" t="n">
         <v>43279922</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3014,25 +3762,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B15" t="n">
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D15" t="n">
         <v>49033968</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -3079,25 +3827,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B16" t="n">
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D16" t="n">
         <v>20323892</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -3150,25 +3898,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B17" t="n">
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D17" t="n">
         <v>59468647</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -3221,25 +3969,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B18" t="n">
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D18" t="n">
         <v>140025674</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
@@ -3292,25 +4040,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B19" t="n">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D19" t="n">
         <v>175938841</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H19" t="n">
         <v>4</v>
@@ -3363,25 +4111,25 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B20" t="n">
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D20" t="n">
         <v>30825577</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H20" t="n">
         <v>4</v>
@@ -3434,25 +4182,25 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B21" t="n">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D21" t="n">
         <v>78502713</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -3499,25 +4247,25 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B22" t="n">
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D22" t="n">
         <v>93025521</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="F22" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H22" t="n">
         <v>4</v>
@@ -3570,25 +4318,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D23" t="n">
         <v>104659667</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H23" t="n">
         <v>4</v>
@@ -3641,25 +4389,25 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B24" t="n">
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D24" t="n">
         <v>120762754</v>
       </c>
       <c r="E24" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -3706,25 +4454,25 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B25" t="n">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D25" t="n">
         <v>165043832</v>
       </c>
       <c r="E25" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -3777,25 +4525,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B26" t="n">
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D26" t="n">
         <v>26404730</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -3848,25 +4596,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B27" t="n">
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D27" t="n">
         <v>32813978</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="F27" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="G27" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -3913,25 +4661,25 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B28" t="n">
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D28" t="n">
         <v>51801515</v>
       </c>
       <c r="E28" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -3978,25 +4726,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B29" t="n">
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D29" t="n">
         <v>151919313</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H29" t="n">
         <v>4</v>
@@ -4049,25 +4797,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B30" t="n">
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D30" t="n">
         <v>164757844</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4120,25 +4868,25 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B31" t="n">
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="D31" t="n">
         <v>41201118</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G31" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H31" t="n">
         <v>4</v>
@@ -4191,25 +4939,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B32" t="n">
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="D32" t="n">
         <v>147271052</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H32" t="n">
         <v>4</v>
@@ -4262,25 +5010,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B33" t="n">
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D33" t="n">
         <v>20823291</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
@@ -4333,25 +5081,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B34" t="n">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D34" t="n">
         <v>37348062</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G34" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
@@ -4404,25 +5152,25 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B35" t="n">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D35" t="n">
         <v>117755884</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F35" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -4475,25 +5223,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B36" t="n">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D36" t="n">
         <v>104769693</v>
       </c>
       <c r="E36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F36" t="s">
         <v>194</v>
       </c>
-      <c r="F36" t="s">
-        <v>140</v>
-      </c>
       <c r="G36" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
@@ -4546,25 +5294,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B37" t="n">
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D37" t="n">
         <v>28621014</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G37" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -4617,25 +5365,25 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B38" t="n">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D38" t="n">
         <v>46210340</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H38" t="n">
         <v>4</v>
@@ -4688,25 +5436,25 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B39" t="n">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D39" t="n">
         <v>57914356</v>
       </c>
       <c r="E39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" t="s">
         <v>198</v>
       </c>
-      <c r="F39" t="s">
-        <v>144</v>
-      </c>
       <c r="G39" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
@@ -4759,25 +5507,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B40" t="n">
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D40" t="n">
         <v>113050349</v>
       </c>
       <c r="E40" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G40" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H40" t="n">
         <v>4</v>
@@ -4830,25 +5578,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B41" t="n">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D41" t="n">
         <v>113352855</v>
       </c>
       <c r="E41" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H41" t="n">
         <v>4</v>
@@ -4901,25 +5649,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B42" t="n">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D42" t="n">
         <v>57495294</v>
       </c>
       <c r="E42" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H42" t="n">
         <v>4</v>
@@ -4972,25 +5720,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B43" t="n">
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="D43" t="n">
         <v>62017125</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G43" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -5037,25 +5785,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B44" t="n">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D44" t="n">
         <v>69110357</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G44" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -5108,25 +5856,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B45" t="n">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D45" t="n">
         <v>102765710</v>
       </c>
       <c r="E45" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G45" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
@@ -5179,25 +5927,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B46" t="n">
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="D46" t="n">
         <v>66106610</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H46" t="n">
         <v>4</v>
@@ -5250,25 +5998,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B47" t="n">
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="D47" t="n">
         <v>86398673</v>
       </c>
       <c r="E47" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -5321,25 +6069,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B48" t="n">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D48" t="n">
         <v>60637930</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="F48" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G48" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H48" t="n">
         <v>4</v>
@@ -5392,25 +6140,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B49" t="n">
         <v>17</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="D49" t="n">
         <v>46775246</v>
       </c>
       <c r="E49" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H49" t="n">
         <v>4</v>
@@ -5463,25 +6211,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B50" t="n">
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="D50" t="n">
         <v>67964738</v>
       </c>
       <c r="E50" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H50" t="n">
         <v>4</v>
@@ -5534,25 +6282,25 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B51" t="n">
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D51" t="n">
         <v>37627749</v>
       </c>
       <c r="E51" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
@@ -5605,25 +6353,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B52" t="n">
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D52" t="n">
         <v>52885080</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
@@ -5676,25 +6424,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B53" t="n">
         <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D53" t="n">
         <v>54812282</v>
       </c>
       <c r="E53" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F53" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="G53" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -5741,25 +6489,25 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B54" t="n">
         <v>22</v>
       </c>
       <c r="C54" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D54" t="n">
         <v>79819773</v>
       </c>
       <c r="E54" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H54" t="n">
         <v>4</v>
@@ -5812,25 +6560,25 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B55" t="n">
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="D55" t="n">
         <v>52622790</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G55" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="H55" t="n">
         <v>2</v>
@@ -5883,25 +6631,25 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B56" t="n">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D56" t="n">
         <v>24737118</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G56" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H56" t="n">
         <v>4</v>
@@ -5954,25 +6702,25 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B57" t="n">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D57" t="n">
         <v>54300291</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G57" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -6019,25 +6767,25 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B58" t="n">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D58" t="n">
         <v>55154405</v>
       </c>
       <c r="E58" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="F58" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="G58" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H58" t="n">
         <v>1</v>
@@ -6084,25 +6832,25 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B59" t="n">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D59" t="n">
         <v>57509757</v>
       </c>
       <c r="E59" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G59" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -6149,25 +6897,25 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B60" t="n">
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D60" t="n">
         <v>62602338</v>
       </c>
       <c r="E60" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="F60" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H60" t="n">
         <v>2</v>
@@ -6220,25 +6968,25 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B61" t="n">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D61" t="n">
         <v>67083844</v>
       </c>
       <c r="E61" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H61" t="n">
         <v>1</v>
@@ -6285,25 +7033,25 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="B62" t="n">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D62" t="n">
         <v>84435558</v>
       </c>
       <c r="E62" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="F62" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G62" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
@@ -6356,25 +7104,25 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D63" t="n">
         <v>117834794</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="F63" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H63" t="n">
         <v>1</v>
@@ -6423,25 +7171,25 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="D64" t="n">
         <v>6265158</v>
       </c>
       <c r="E64" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
@@ -6494,25 +7242,25 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B65" t="n">
         <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D65" t="n">
         <v>88474177</v>
       </c>
       <c r="E65" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="F65" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
@@ -6565,25 +7313,25 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D66" t="n">
         <v>62867876</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>292</v>
       </c>
       <c r="F66" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H66" t="n">
         <v>3</v>
@@ -6636,25 +7384,25 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B67" t="n">
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D67" t="n">
         <v>113074311</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="F67" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G67" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H67" t="n">
         <v>2</v>
@@ -6669,7 +7417,7 @@
         <v>36.2044788548658</v>
       </c>
       <c r="L67" t="n">
-        <v>0.00000000177661772543059</v>
+        <v>0.0000000017766177254306</v>
       </c>
       <c r="M67" t="n">
         <v>2.04118380984267</v>
@@ -6707,25 +7455,25 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B68" t="n">
         <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="D68" t="n">
         <v>13738008</v>
       </c>
       <c r="E68" t="s">
-        <v>240</v>
+        <v>294</v>
       </c>
       <c r="F68" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G68" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H68" t="n">
         <v>1</v>
@@ -6774,25 +7522,25 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B69" t="n">
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="D69" t="n">
         <v>44339680</v>
       </c>
       <c r="E69" t="s">
-        <v>242</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H69" t="n">
         <v>3</v>
@@ -6845,25 +7593,25 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B70" t="n">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D70" t="n">
         <v>84433968</v>
       </c>
       <c r="E70" t="s">
-        <v>243</v>
+        <v>297</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H70" t="n">
         <v>3</v>
@@ -6916,25 +7664,25 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="B71" t="n">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="D71" t="n">
         <v>34653405</v>
       </c>
       <c r="E71" t="s">
-        <v>245</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
@@ -6987,25 +7735,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>298</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D72" t="n">
         <v>84318115</v>
       </c>
       <c r="E72" t="s">
-        <v>246</v>
+        <v>300</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G72" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H72" t="n">
         <v>2</v>
@@ -7058,25 +7806,25 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B73" t="n">
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D73" t="n">
         <v>231000429</v>
       </c>
       <c r="E73" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="F73" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H73" t="n">
         <v>3</v>
@@ -7129,25 +7877,25 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B74" t="n">
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D74" t="n">
         <v>158284354</v>
       </c>
       <c r="E74" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G74" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
@@ -7196,25 +7944,25 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D75" t="n">
         <v>68966963</v>
       </c>
       <c r="E75" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G75" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H75" t="n">
         <v>3</v>
@@ -7267,25 +8015,25 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="B76" t="n">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="D76" t="n">
         <v>83448213</v>
       </c>
       <c r="E76" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="F76" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="G76" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H76" t="n">
         <v>3</v>
@@ -7338,25 +8086,25 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="D77" t="n">
         <v>63624511</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="G77" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="H77" t="n">
         <v>1</v>
@@ -7405,25 +8153,25 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="D78" t="n">
         <v>12055249</v>
       </c>
       <c r="E78" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="G78" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -7490,346 +8238,3370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>73</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>77</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>79</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>85</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>87</v>
       </c>
-      <c r="S1" t="s">
-        <v>89</v>
-      </c>
-      <c r="T1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" t="s">
-        <v>93</v>
-      </c>
       <c r="V1" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="W1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="X1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Y1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AA1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AB1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AC1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AD1" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>7</v>
+      <c r="A2" t="s">
+        <v>310</v>
       </c>
       <c r="B2" t="n">
-        <v>41140716</v>
-      </c>
-      <c r="C2" t="n">
-        <v>41340716</v>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>213935953</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.445848</v>
+      </c>
+      <c r="I2" t="n">
+        <v>570913</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>312</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.0085552</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00997236</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.344441</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.14239</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0750475</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.103294</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.85962</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.524905</v>
+      </c>
+      <c r="T2" t="n">
+        <v>40.401</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0000000357585929770518</v>
+      </c>
+      <c r="W2" t="n">
+        <v>28.9683</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.00000227404091780535</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>14.097</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2276724758145</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>14.7844</v>
+      </c>
+      <c r="AD2"/>
+      <c r="AE2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>213835284</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>213990332</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="F2" t="n">
-        <v>0.809697</v>
-      </c>
-      <c r="G2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41240716</v>
-      </c>
-      <c r="I2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.993966</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.990388</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.95567</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.0569454</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.0286675</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.0283741</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0457299</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0950469</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.00494028</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.671542</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.117506</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8.03251</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.941076</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.466582</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.317532</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.998033</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>22341421</v>
+      </c>
+      <c r="F3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.385719</v>
+      </c>
+      <c r="I3" t="n">
+        <v>570895</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.020343</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00899327</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.079559</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.135952</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.0144481</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.105887</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.360199</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.428513</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42.8044</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.0000000113614381758922</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.874638</v>
+      </c>
+      <c r="X3" t="n">
         <v>3</v>
       </c>
-      <c r="B3" t="n">
-        <v>16751665</v>
-      </c>
-      <c r="C3" t="n">
-        <v>16962555</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="Y3" t="n">
+        <v>0.831543524014795</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>9.1424</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.608749967870748</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>15.9861</v>
+      </c>
+      <c r="AD3"/>
+      <c r="AE3" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21647496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>22531078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16797012</v>
+      </c>
+      <c r="F4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.140618</v>
+      </c>
+      <c r="I4" t="n">
+        <v>570906</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0329799</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0100068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.0535813</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.14505</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.0698672</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.125562</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.755807</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.51569</v>
+      </c>
+      <c r="T4" t="n">
+        <v>44.6786</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.00000000463717095317998</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.47899</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.687127847332567</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>6.176</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.86136654134817</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>16.9232</v>
+      </c>
+      <c r="AD4"/>
+      <c r="AE4" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>16664210</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>16880169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18657436</v>
+      </c>
+      <c r="F5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.702127</v>
+      </c>
+      <c r="I5" t="n">
+        <v>570895</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>320</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0178635</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00984316</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.0930241</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.141101</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.00721892</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.10779</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.3378</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.519537</v>
+      </c>
+      <c r="T5" t="n">
+        <v>78.2644</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.000000000000000406063957709044</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8.16013</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.0428156680806869</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>12.7457</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.310270802336654</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>33.7161</v>
+      </c>
+      <c r="AD5"/>
+      <c r="AE5" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>18567986</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>18815248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43302871</v>
+      </c>
+      <c r="F6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.863764</v>
+      </c>
+      <c r="I6" t="n">
+        <v>536525</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>322</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0771355</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0582562</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.03516</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.99006</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.92023</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.485479</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.60849</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.42182</v>
+      </c>
+      <c r="T6" t="n">
+        <v>48.6899</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.000000000677663339409421</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11.8237</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.00801214889338575</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>14.1083</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.0492883205066744</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19.5492</v>
+      </c>
+      <c r="AD6"/>
+      <c r="AE6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>42365656</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>44173288</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>44491991</v>
+      </c>
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.314419</v>
+      </c>
+      <c r="I7" t="n">
+        <v>557541</v>
+      </c>
+      <c r="J7" t="n">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0828467</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0289766</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.22364</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.463001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.314021</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.221822</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.888008</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.741377</v>
+      </c>
+      <c r="T7" t="n">
+        <v>49.5697</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.000000000444059350625542</v>
+      </c>
+      <c r="W7" t="n">
+        <v>14.103</v>
+      </c>
+      <c r="X7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.00276825225446233</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.08058</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.429869467376119</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>19.6549</v>
+      </c>
+      <c r="AD7"/>
+      <c r="AE7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>44180327</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>45015616</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>325</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48670914</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" t="s">
+        <v>194</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.142181</v>
+      </c>
+      <c r="I8" t="n">
+        <v>557514</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>326</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.0938802</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0397411</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.845262</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.75564</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.786866</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.415121</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.756385</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.91215</v>
+      </c>
+      <c r="T8" t="n">
+        <v>49.7369</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.000000000409769659353911</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.6132</v>
+      </c>
+      <c r="X8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.0547200984965039</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15.4576</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.079109262899353</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>19.7386</v>
+      </c>
+      <c r="AD8"/>
+      <c r="AE8" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>48180863</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>49668079</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>327</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>140026941</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.324757</v>
+      </c>
+      <c r="I9" t="n">
+        <v>570910</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>328</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.00912246</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0142323</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.057319</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.210173</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.292392</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.167186</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.222018</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.716107</v>
+      </c>
+      <c r="T9" t="n">
+        <v>50.7023</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.000000000257593570125911</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.08017</v>
+      </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.107774262772065</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>20.1391</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.0434691303948761</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>19.9351</v>
+      </c>
+      <c r="AD9"/>
+      <c r="AE9" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>139919809</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>140044014</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>104659667</v>
+      </c>
+      <c r="F10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G10" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.634453</v>
+      </c>
+      <c r="I10" t="n">
+        <v>570911</v>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.0190804</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00965636</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.255386</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.137341</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.115811</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.0942974</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.474425</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.524376</v>
+      </c>
+      <c r="T10" t="n">
+        <v>51.1654</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.000000000206145399821759</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.8376</v>
+      </c>
+      <c r="X10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.0126372413292048</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13.3198</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.272938306119956</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>20.1666</v>
+      </c>
+      <c r="AD10"/>
+      <c r="AE10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>104408031</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>104782332</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>332</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>120795518</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.323778</v>
+      </c>
+      <c r="I11" t="n">
+        <v>570842</v>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0126221</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.010598</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.200313</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.154659</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.104489</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.0961507</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.84401</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.518372</v>
+      </c>
+      <c r="T11" t="n">
+        <v>44.8124</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.00000000434952559912104</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11.7022</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.00847613745593947</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12.0801</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.357652587876688</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>16.9901</v>
+      </c>
+      <c r="AD11"/>
+      <c r="AE11" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>120592934</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>120980359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>165043834</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.560947</v>
+      </c>
+      <c r="I12" t="n">
+        <v>552304</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>335</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0309284</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.00998195</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.114058</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.147828</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.0109061</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.0931419</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.185306</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.489935</v>
+      </c>
+      <c r="T12" t="n">
+        <v>44.0775</v>
+      </c>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.00000000618231883943283</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.02586</v>
+      </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.794994938220263</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>11.2408</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.339067872407204</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>16.7607</v>
+      </c>
+      <c r="AD12"/>
+      <c r="AE12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>164964850</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>165337502</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32810300</v>
+      </c>
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0341017</v>
+      </c>
+      <c r="I13" t="n">
+        <v>514351</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.21185</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.126196</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11.3406</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3.13593</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-6.66548</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.17164</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.443572</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.43257</v>
+      </c>
+      <c r="T13" t="n">
+        <v>53.519</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.0000000000663603168402476</v>
+      </c>
+      <c r="W13" t="n">
+        <v>18.9767</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.00027644849521317</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2.77517</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.427603704725034</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>22.8677</v>
+      </c>
+      <c r="AD13"/>
+      <c r="AE13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>28510120</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>33480577</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" t="n">
+        <v>151914204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.592835</v>
+      </c>
+      <c r="I14" t="n">
+        <v>570878</v>
+      </c>
+      <c r="J14" t="n">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>340</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.0230453</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0125962</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0379898</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.182765</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-0.013294</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.120503</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.633458</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.635255</v>
+      </c>
+      <c r="T14" t="n">
+        <v>58.3801</v>
+      </c>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.00000000000635018226615058</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.86926</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.599980378857046</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>20.5105</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.0388118682020267</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>23.7739</v>
+      </c>
+      <c r="AD14"/>
+      <c r="AE14" t="s">
+        <v>338</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>151853097</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>152010995</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20823291</v>
+      </c>
+      <c r="F15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.186506</v>
+      </c>
+      <c r="I15" t="n">
+        <v>558003</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>341</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.0115631</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0207077</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.282819</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.339196</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.310562</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.167055</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-1.43809</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.553562</v>
+      </c>
+      <c r="T15" t="n">
+        <v>40.3645</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.0000000363858296592461</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10.9683</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.011898530264207</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>5.3874</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.863843977614697</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>14.9041</v>
+      </c>
+      <c r="AD15"/>
+      <c r="AE15" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>20661956</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>21308675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>310</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" t="n">
+        <v>11</v>
+      </c>
+      <c r="E16" t="n">
+        <v>113030063</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+      <c r="G16" t="s">
+        <v>198</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.490687</v>
+      </c>
+      <c r="I16" t="n">
+        <v>461517</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s">
+        <v>344</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0292154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00726731</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.0217242</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.102135</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.273286</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0674545</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.832219</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.366596</v>
+      </c>
+      <c r="T16" t="n">
+        <v>53.7335</v>
+      </c>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.0000000000598418553147647</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12.7291</v>
+      </c>
+      <c r="X16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.00526061776166157</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5.63979</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.84456449477518</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>21.5887</v>
+      </c>
+      <c r="AD16"/>
+      <c r="AE16" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>112917749</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>113177709</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" t="n">
+        <v>11</v>
+      </c>
+      <c r="E17" t="n">
+        <v>113352855</v>
+      </c>
+      <c r="F17" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0344082</v>
+      </c>
+      <c r="I17" t="n">
+        <v>552923</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="s">
+        <v>346</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0364872</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0240077</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.757433</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.444599</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.274887</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.229007</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.719665</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.558551</v>
+      </c>
+      <c r="T17" t="n">
+        <v>47.9682</v>
+      </c>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.000000000958299863071625</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.584908</v>
+      </c>
+      <c r="X17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.899878482619982</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.941845</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.98772105771537</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>19.3789</v>
+      </c>
+      <c r="AD17"/>
+      <c r="AE17" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>113290360</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>113420953</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" t="n">
+        <v>12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>57495294</v>
+      </c>
+      <c r="F18" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.24916</v>
+      </c>
+      <c r="I18" t="n">
+        <v>554255</v>
+      </c>
+      <c r="J18" t="n">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.0264116</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.016636</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.328652</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.290535</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0642916</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.16322</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.441546</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.544683</v>
+      </c>
+      <c r="T18" t="n">
+        <v>44.7814</v>
+      </c>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.00000000441454311687289</v>
+      </c>
+      <c r="W18" t="n">
+        <v>4.62148</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.201707144191977</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11.4213</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.325649966738431</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>17.1126</v>
+      </c>
+      <c r="AD18"/>
+      <c r="AE18" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>57240915</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>57886809</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" t="n">
+        <v>13</v>
+      </c>
+      <c r="E19" t="n">
+        <v>62089034</v>
+      </c>
+      <c r="F19" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0180723</v>
+      </c>
+      <c r="I19" t="n">
+        <v>509125</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>350</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.34492</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.458467</v>
+      </c>
+      <c r="N19" t="n">
+        <v>47.6756</v>
+      </c>
+      <c r="O19" t="n">
+        <v>12.8611</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1.5388</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.25452</v>
+      </c>
+      <c r="R19" t="n">
+        <v>44.9675</v>
+      </c>
+      <c r="S19" t="n">
+        <v>14.7074</v>
+      </c>
+      <c r="T19" t="n">
+        <v>40.9539</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0000000274755386159556</v>
+      </c>
+      <c r="W19" t="n">
+        <v>25.3934</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0000127756920834027</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>3.15032</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.206974434122279</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>16.8934</v>
+      </c>
+      <c r="AD19"/>
+      <c r="AE19" t="s">
+        <v>351</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>61550137</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>62680306</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" t="n">
+        <v>14</v>
+      </c>
+      <c r="E20" t="n">
+        <v>69110357</v>
+      </c>
+      <c r="F20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.357917</v>
+      </c>
+      <c r="I20" t="n">
+        <v>538255</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.0122493</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0239466</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0581299</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.399127</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.163569</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.196083</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.346865</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.604536</v>
+      </c>
+      <c r="T20" t="n">
+        <v>43.1366</v>
+      </c>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.00000000969404814336411</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.2556</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.521080088035095</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.49117</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.484680359753362</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>16.5985</v>
+      </c>
+      <c r="AD20"/>
+      <c r="AE20" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>68898538</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>69324396</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60709930</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.457764</v>
+      </c>
+      <c r="I21" t="n">
+        <v>570911</v>
+      </c>
+      <c r="J21" t="n">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>355</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0462985</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0129869</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.766414</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.206714</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.409987</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.112077</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.06627</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.479185</v>
+      </c>
+      <c r="T21" t="n">
+        <v>48.1157</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.000000000892796139536439</v>
+      </c>
+      <c r="W21" t="n">
+        <v>26.2161</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.00000859365952225061</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.67197</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.560112579210798</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>18.6418</v>
+      </c>
+      <c r="AD21"/>
+      <c r="AE21" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>60550705</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>60711304</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>67964738</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.230408</v>
+      </c>
+      <c r="I22" t="n">
+        <v>570861</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>357</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0101989</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0110587</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0129802</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.163397</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.206883</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.124772</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-1.0918</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.544952</v>
+      </c>
+      <c r="T22" t="n">
+        <v>62.7197</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.000000000000777314361140191</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.9361</v>
+      </c>
+      <c r="X22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.0473509518821705</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11.5283</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.400121850478135</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>25.9438</v>
+      </c>
+      <c r="AD22"/>
+      <c r="AE22" t="s">
+        <v>358</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>67767251</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>68216846</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="n">
+        <v>18</v>
+      </c>
+      <c r="E23" t="n">
+        <v>53196809</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.462641</v>
+      </c>
+      <c r="I23" t="n">
+        <v>570904</v>
+      </c>
+      <c r="J23" t="n">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>360</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0129967</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0223582</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0840048</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.364128</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.0504961</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.185296</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1.00527</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.68793</v>
+      </c>
+      <c r="T23" t="n">
+        <v>50.0956</v>
+      </c>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.000000000344865479873951</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.92072</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.0744680869901346</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>18.411</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.0725209605103693</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>19.6317</v>
+      </c>
+      <c r="AD23"/>
+      <c r="AE23" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>52678491</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>53528699</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>310</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18</v>
+      </c>
+      <c r="E24" t="n">
+        <v>54808629</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.71793</v>
+      </c>
+      <c r="I24" t="n">
+        <v>570914</v>
+      </c>
+      <c r="J24" t="n">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>363</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0290043</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0130881</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0399843</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.17494</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.00961172</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.119154</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.156852</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.72186</v>
+      </c>
+      <c r="T24" t="n">
+        <v>47.5894</v>
+      </c>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.00000000114934907179965</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.314602</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.957259248550833</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>20.8972</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.0344518704463635</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>18.3786</v>
+      </c>
+      <c r="AD24"/>
+      <c r="AE24" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>54653178</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>54880892</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" t="n">
+        <v>18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>79819773</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.220018</v>
+      </c>
+      <c r="I25" t="n">
+        <v>570917</v>
+      </c>
+      <c r="J25" t="n">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>364</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0236692</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0155106</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.0162993</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.216673</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.137602</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.138012</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.0238638</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.786188</v>
+      </c>
+      <c r="T25" t="n">
+        <v>42.2576</v>
+      </c>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0000000147515146331227</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.03376</v>
+      </c>
+      <c r="X25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.565429340446315</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>17.6048</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.091215336471062</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>15.7127</v>
+      </c>
+      <c r="AD25"/>
+      <c r="AE25" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>79791586</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>79820712</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D26" t="n">
+        <v>23</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24594282</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.609588</v>
+      </c>
+      <c r="I26" t="n">
+        <v>570526</v>
+      </c>
+      <c r="J26" t="n">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
+        <v>366</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.00172246</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.00755365</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0454214</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.109944</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.0204529</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0746952</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.47705</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.387597</v>
+      </c>
+      <c r="T26" t="n">
+        <v>46.697</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.00000000176338645584224</v>
+      </c>
+      <c r="W26" t="n">
+        <v>13.6114</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.00348478543081792</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10.275</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.505833612964827</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>17.9324</v>
+      </c>
+      <c r="AD26"/>
+      <c r="AE26" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>24532244</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>24993257</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62602338</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.941136</v>
+      </c>
+      <c r="I27" t="n">
+        <v>367626</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="s">
+        <v>368</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0543266</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.143155</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.75021</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.10325</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.3729</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.979843</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.24832</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.90521</v>
+      </c>
+      <c r="T27" t="n">
+        <v>44.8866</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.00000000419775801465184</v>
+      </c>
+      <c r="W27" t="n">
+        <v>28.0865</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.00000348332067034758</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4.80605</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.0904439461254922</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>18.8598</v>
+      </c>
+      <c r="AD27"/>
+      <c r="AE27" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>62513159</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>63588743</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12</v>
+      </c>
+      <c r="E28" t="n">
+        <v>60419474</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.304091</v>
+      </c>
+      <c r="I28" t="n">
+        <v>200246</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>371</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0178861</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0271685</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.900093</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.332607</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.351411</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.725902</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-4.91931</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.15073</v>
+      </c>
+      <c r="T28" t="n">
+        <v>47.8901</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.000000000994904270173618</v>
+      </c>
+      <c r="W28" t="n">
+        <v>33.8508</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.000000213020234115902</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>8.32942</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.214948772313846</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>19.3399</v>
+      </c>
+      <c r="AD28"/>
+      <c r="AE28" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>59728807</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>60898700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16851665</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="n">
-        <v>0.8804</v>
-      </c>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>0.0193145</v>
-      </c>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3" t="n">
-        <v>0.00313364</v>
-      </c>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3" t="n">
-        <v>9.14808</v>
-      </c>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3" t="n">
-        <v>0.997465</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.998745</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.499801</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.499821</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B4" t="n">
-        <v>44752612</v>
-      </c>
-      <c r="C4" t="n">
-        <v>44952612</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44852612</v>
-      </c>
-      <c r="I4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" t="s">
-        <v>140</v>
-      </c>
-      <c r="M4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.5371</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.96737</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7474</v>
-      </c>
-      <c r="R4" t="n">
-        <v>-0.00870755</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.00370775</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.0128311</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.0185984</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.0199335</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.00234024</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.194057</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.0693359</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.37815</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.999602</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.296817</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.279135</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.999967</v>
+      <c r="C29" t="s">
+        <v>373</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3455419</v>
+      </c>
+      <c r="F29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0135595</v>
+      </c>
+      <c r="I29" t="n">
+        <v>260405</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9</v>
+      </c>
+      <c r="K29" t="s">
+        <v>374</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.158692</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0424279</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.36872</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.585836</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-2.12806</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.66365</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.84451</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.87001</v>
+      </c>
+      <c r="T29" t="n">
+        <v>41.3767</v>
+      </c>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.0000000224589924144167</v>
+      </c>
+      <c r="W29" t="n">
+        <v>14.9139</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.00189172532767605</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.4185</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.366965430776094</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>16.2939</v>
+      </c>
+      <c r="AD29"/>
+      <c r="AE29" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>3390659</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>3492791</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="n">
+        <v>158565600</v>
+      </c>
+      <c r="F30" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.150481</v>
+      </c>
+      <c r="I30" t="n">
+        <v>261073</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>376</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0117527</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0184113</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.193472</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.14663</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.101123</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.4289</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2.51085</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.942689</v>
+      </c>
+      <c r="T30" t="n">
+        <v>42.0829</v>
+      </c>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.0000000160344672523196</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.24575</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.100247237621481</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5.97263</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.542948833926338</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>16.2457</v>
+      </c>
+      <c r="AD30"/>
+      <c r="AE30" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>158112929</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>158799345</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D31" t="n">
+        <v>14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>68966963</v>
+      </c>
+      <c r="F31" t="s">
+        <v>193</v>
+      </c>
+      <c r="G31" t="s">
+        <v>198</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.71041</v>
+      </c>
+      <c r="I31" t="n">
+        <v>261083</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>377</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.011063</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.0138927</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.20418</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.102045</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.191806</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.348705</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.849828</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.650597</v>
+      </c>
+      <c r="T31" t="n">
+        <v>45.7319</v>
+      </c>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.00000000280041772586052</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7.24524</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.0644786204815808</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>2.94887</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.889691526806666</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>18.0702</v>
+      </c>
+      <c r="AD31"/>
+      <c r="AE31" t="s">
+        <v>353</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>68898538</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>69312510</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16</v>
+      </c>
+      <c r="E32" t="n">
+        <v>83445457</v>
+      </c>
+      <c r="F32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.533386</v>
+      </c>
+      <c r="I32" t="n">
+        <v>261047</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11</v>
+      </c>
+      <c r="K32" t="s">
+        <v>379</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0294626</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00952502</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.513876</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0788867</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.532239</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.220154</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.220316</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.474579</v>
+      </c>
+      <c r="T32" t="n">
+        <v>41.907</v>
+      </c>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0000000174387094629586</v>
+      </c>
+      <c r="W32" t="n">
+        <v>19.3297</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.000233668167842935</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>2.83533</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.899806172721806</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>16.1577</v>
+      </c>
+      <c r="AD32"/>
+      <c r="AE32" t="s">
+        <v>356</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>83443927</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>83509611</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>380</v>
+      </c>
+      <c r="D33" t="n">
+        <v>23</v>
+      </c>
+      <c r="E33" t="n">
+        <v>70829477</v>
+      </c>
+      <c r="F33" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.403972</v>
+      </c>
+      <c r="I33" t="n">
+        <v>193544</v>
+      </c>
+      <c r="J33" t="n">
+        <v>10</v>
+      </c>
+      <c r="K33" t="s">
+        <v>381</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0824484</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0164508</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.409273</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.174336</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.285945</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.441451</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-1.32522</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.779593</v>
+      </c>
+      <c r="T33" t="n">
+        <v>43.5319</v>
+      </c>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.00000000802516183838313</v>
+      </c>
+      <c r="W33" t="n">
+        <v>17.5778</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.000537439632415524</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5.94477</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.4294053817281</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>17.1608</v>
+      </c>
+      <c r="AD33"/>
+      <c r="AE33" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>70448613</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>71021855</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23</v>
+      </c>
+      <c r="E34" t="n">
+        <v>143961283</v>
+      </c>
+      <c r="F34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0706913</v>
+      </c>
+      <c r="I34" t="n">
+        <v>145840</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>383</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0960742</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0661831</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.676098</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.487673</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.37159</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.17266</v>
+      </c>
+      <c r="R34" t="n">
+        <v>10.0091</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.17997</v>
+      </c>
+      <c r="T34" t="n">
+        <v>41.3465</v>
+      </c>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0000000227848221286814</v>
+      </c>
+      <c r="W34" t="n">
+        <v>29.7691</v>
+      </c>
+      <c r="X34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.00000154333761158156</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>2.11398</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.347500213357174</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>17.0897</v>
+      </c>
+      <c r="AD34"/>
+      <c r="AE34" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>143889504</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>144077530</v>
       </c>
     </row>
   </sheetData>
@@ -7848,82 +11620,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="H1" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="L1" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="O1" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="P1" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="Q1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="T1" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="V1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="W1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="X1" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="Z1" t="s">
-        <v>134</v>
+        <v>157</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -7939,29 +11723,375 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.809697</v>
+      </c>
+      <c r="G2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41240716</v>
+      </c>
+      <c r="I2" t="s">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N2" t="s">
+        <v>193</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.993966</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.990388</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.95567</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0569454</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0286675</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0283741</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0457299</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0950469</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.00494028</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.671542</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.117506</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8.03251</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.941076</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.466582</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.317532</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.998033</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16751665</v>
+      </c>
+      <c r="C3" t="n">
+        <v>16962555</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" t="n">
+        <v>16851665</v>
+      </c>
+      <c r="I3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>198</v>
+      </c>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>0.8804</v>
+      </c>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3" t="n">
+        <v>0.0193145</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" t="n">
+        <v>0.00313364</v>
+      </c>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="n">
+        <v>9.14808</v>
+      </c>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3" t="n">
+        <v>0.997465</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.998745</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.499801</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.499821</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>17</v>
+      </c>
+      <c r="B4" t="n">
+        <v>44752612</v>
+      </c>
+      <c r="C4" t="n">
+        <v>44952612</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="n">
+        <v>44852612</v>
+      </c>
+      <c r="I4" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" t="s">
+        <v>194</v>
+      </c>
+      <c r="M4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5371</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.96737</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.7474</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.00870755</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.00370775</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.0128311</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.0185984</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0199335</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.00234024</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.194057</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.0693359</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.37815</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.999602</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.296817</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.279135</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.999967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R1" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
+        <v>151</v>
+      </c>
+      <c r="V1" t="s">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s">
+        <v>155</v>
+      </c>
+      <c r="X1" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>41140716</v>
+      </c>
+      <c r="C2" t="n">
+        <v>41340716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F2" t="n">
         <v>41240716</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="M2" t="n">
         <v>0.993966</v>
@@ -8020,24 +12150,24 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>384</v>
       </c>
       <c r="F3" t="n">
         <v>41224328</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="K3"/>
       <c r="L3" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="M3" t="n">
         <v>0.991779</v>
@@ -8088,18 +12218,18 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="F4" t="n">
         <v>16851665</v>
       </c>
       <c r="G4" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="K4"/>
       <c r="L4"/>
@@ -8144,28 +12274,28 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F5" t="n">
         <v>44852612</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="H5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="K5" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="L5" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="M5" t="n">
         <v>0.5371</v>

--- a/manuscript/tables/S1_clumps_finemap.xlsx
+++ b/manuscript/tables/S1_clumps_finemap.xlsx
@@ -2783,6 +2783,31 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="9.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="7.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="3.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="7.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="11.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="11.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="6.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="6.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="6.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="9.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="9.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -7417,7 +7442,7 @@
         <v>36.2044788548658</v>
       </c>
       <c r="L67" t="n">
-        <v>0.0000000017766177254306</v>
+        <v>0.00000000177661772543059</v>
       </c>
       <c r="M67" t="n">
         <v>2.04118380984267</v>
@@ -8235,6 +8260,41 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="5.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="3.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="3.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="7.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="7.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="15.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="11.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="9.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="9.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="17.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="15.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="11.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="18.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="16.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="20.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="18.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="16.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="20.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="7.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="8.71" hidden="0" customWidth="1"/>
+    <col min="31" max="31" width="3.71" hidden="0" customWidth="1"/>
+    <col min="32" max="32" width="9.71" hidden="0" customWidth="1"/>
+    <col min="33" max="33" width="9.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -11617,6 +11677,38 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="9.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="11.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="14.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="14.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="14.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="14.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="14.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="9.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="9.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="11.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
+    <col min="28" max="28" width="21.71" hidden="0" customWidth="1"/>
+    <col min="29" max="29" width="21.71" hidden="0" customWidth="1"/>
+    <col min="30" max="30" width="21.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -11975,6 +12067,34 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="3.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="8.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="14.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="14.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="14.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="14.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="14.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="11.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="9.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="9.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="11.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="11.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="9.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="9.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/manuscript/tables/S1_clumps_finemap.xlsx
+++ b/manuscript/tables/S1_clumps_finemap.xlsx
@@ -21,7 +21,7 @@
     <t xml:space="preserve">Table S1. Clumping and fine mapping results for the meta-analysis of the antidepressant GWAS.</t>
   </si>
   <si>
-    <t xml:space="preserve">Results are divided into (A) fixed clumping results across all ancestries and antidepressant phenotypes, (B) MR-MEGA clumping results, (C) significant SuSiEx summary statistics and (D) significant SuSiEx credible sets.</t>
+    <t xml:space="preserve">Results are divided into (A) fixed clumping results across all ancestries and antidepressant phenotypes, (B) MR-MEGA clumping results, (C) significant SuSiEx summary statistics and (D) significant SuSiEx credible sets</t>
   </si>
   <si>
     <t xml:space="preserve">sheet_name</t>

--- a/manuscript/tables/S1_clumps_finemap.xlsx
+++ b/manuscript/tables/S1_clumps_finemap.xlsx
@@ -1534,7 +1534,7 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
